--- a/TestData/TMTI0056873_VerifyUserCanEditAnyOtherJobTypesToNewJobTypeForExistingFVAOpportunity.xlsx
+++ b/TestData/TMTI0056873_VerifyUserCanEditAnyOtherJobTypesToNewJobTypeForExistingFVAOpportunity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669D5A81-1803-4C53-95DA-5885BE44F97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D0E550-515F-4EE9-98D0-9F363BA6CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23136" windowHeight="11556" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t>JobType</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Vijay Kumar</t>
+  </si>
+  <si>
+    <t>CVAS - IP Valuation</t>
   </si>
 </sst>
 </file>
@@ -994,13 +997,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1025,20 +1028,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4AE0FA7-2F57-4BA1-965A-06DF4981B62E}">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1216,28 +1219,28 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K25" s="4"/>
     </row>
   </sheetData>
@@ -1253,12 +1256,12 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1319,25 +1322,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>

--- a/TestData/TMTI0056873_VerifyUserCanEditAnyOtherJobTypesToNewJobTypeForExistingFVAOpportunity.xlsx
+++ b/TestData/TMTI0056873_VerifyUserCanEditAnyOtherJobTypesToNewJobTypeForExistingFVAOpportunity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D0E550-515F-4EE9-98D0-9F363BA6CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A182D08-D731-479A-8EEB-4085BADC43E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23136" windowHeight="11556" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="28950" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>JobType</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>CVAS - IP Valuation</t>
+  </si>
+  <si>
+    <t>TAS - ESG Due Diligence &amp; Analytics</t>
   </si>
 </sst>
 </file>
@@ -1320,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,6 +1349,11 @@
         <v>66</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
